--- a/output/fit_clients/fit_round_293.xlsx
+++ b/output/fit_clients/fit_round_293.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1956523676.187549</v>
+        <v>1524914597.446837</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1128476834503205</v>
+        <v>0.06924825524295913</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03745271108099951</v>
+        <v>0.03705930032659845</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>978261827.8722788</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2091191647.921491</v>
+        <v>2031510667.029083</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1126557053322021</v>
+        <v>0.1182010550604909</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03870892110512496</v>
+        <v>0.03059237566954925</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1045595878.141729</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4563621609.537498</v>
+        <v>4841626967.861408</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1050228826047969</v>
+        <v>0.1009981412219253</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03792483748381939</v>
+        <v>0.03314433194320902</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>106</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2281810858.875703</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2937863896.362339</v>
+        <v>3484763892.105002</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09973658343586551</v>
+        <v>0.1040644970845241</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04132994944597112</v>
+        <v>0.04837474043728091</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>111</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1468932022.164451</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2670831632.813384</v>
+        <v>1878737608.700293</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1047183159321141</v>
+        <v>0.09291852434656069</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05083018776842991</v>
+        <v>0.05442732010906738</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>54</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1335415773.40157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1899006194.85907</v>
+        <v>2177366628.605237</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1007353585681413</v>
+        <v>0.09064382082970901</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04922064031598973</v>
+        <v>0.03779214377256959</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>92</v>
-      </c>
-      <c r="J7" t="n">
-        <v>949503168.2918849</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2544199496.206539</v>
+        <v>2808261786.179546</v>
       </c>
       <c r="F8" t="n">
-        <v>0.202846147158868</v>
+        <v>0.137258878607776</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02971000902549739</v>
+        <v>0.03244381228317172</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>93</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1272099759.022884</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1794931910.147024</v>
+        <v>1733153895.791644</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1326363806896104</v>
+        <v>0.1839350359421574</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03586497480285252</v>
+        <v>0.03024285930710103</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>897466010.138068</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5817179077.966642</v>
+        <v>4965716109.027237</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1866858333394164</v>
+        <v>0.2158340198603737</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04146295573482912</v>
+        <v>0.03760625040328539</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>123</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2908589701.570088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3325179599.999388</v>
+        <v>3103615409.949616</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1324072972959022</v>
+        <v>0.1804609116799769</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04380032270917911</v>
+        <v>0.04036971369759856</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>121</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1662589765.623522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3215834657.878561</v>
+        <v>2344575072.086156</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1913700742333982</v>
+        <v>0.1851488002089096</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03598943948415241</v>
+        <v>0.0463316855319352</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>99</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1607917366.71461</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3735385993.508041</v>
+        <v>5248568256.254425</v>
       </c>
       <c r="F13" t="n">
-        <v>0.081023568684794</v>
+        <v>0.09972986022291967</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0190855800802723</v>
+        <v>0.01973874226524142</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>98</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1867693065.126848</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2515335846.341799</v>
+        <v>3192218790.99909</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1473801988703127</v>
+        <v>0.1483023240568749</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02909339799510688</v>
+        <v>0.04242245757072945</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>95</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1257667992.706364</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1804770462.453089</v>
+        <v>1824221689.964306</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08320837501035558</v>
+        <v>0.07416604158151688</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04133930345353903</v>
+        <v>0.04182871581078291</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>902385385.8289312</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1882241241.60173</v>
+        <v>2228919782.787689</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07015147390469677</v>
+        <v>0.08779725335574259</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04674748449133186</v>
+        <v>0.04666667119611696</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>57</v>
-      </c>
-      <c r="J16" t="n">
-        <v>941120706.8001615</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3370555307.19275</v>
+        <v>5235713151.80451</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1242207432989237</v>
+        <v>0.1706526820617907</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03733577718794768</v>
+        <v>0.04741730204038008</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>86</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1685277719.300048</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3136468973.818223</v>
+        <v>3890408249.316922</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1373335560759875</v>
+        <v>0.1710874978161287</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02619986263593507</v>
+        <v>0.02915590582974561</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>96</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1568234507.265666</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>985961773.2848437</v>
+        <v>1292445688.574313</v>
       </c>
       <c r="F19" t="n">
-        <v>0.160461332947918</v>
+        <v>0.1777962652812113</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02368057478926608</v>
+        <v>0.01989791963093514</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>492980912.4566749</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1775433719.481604</v>
+        <v>2048216863.190403</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1440342614953618</v>
+        <v>0.1339754547623787</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03154923193609119</v>
+        <v>0.03122597008143698</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>887716910.012023</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1807827856.326557</v>
+        <v>1700702173.730063</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0853141353586626</v>
+        <v>0.08146025341766085</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04581256691025999</v>
+        <v>0.03233037327115442</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>24</v>
-      </c>
-      <c r="J21" t="n">
-        <v>903913982.5085799</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2505638301.506002</v>
+        <v>2939870948.585969</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1145294436896349</v>
+        <v>0.1252047014150375</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04962366693920168</v>
+        <v>0.05348925830741337</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>81</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1252819241.885463</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1530216364.072008</v>
+        <v>1042696772.058123</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1616091952414136</v>
+        <v>0.1602878089561548</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03995929921582372</v>
+        <v>0.05250373159047262</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>765108162.8884269</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2795979357.257706</v>
+        <v>3410141514.705371</v>
       </c>
       <c r="F24" t="n">
-        <v>0.140616749103588</v>
+        <v>0.1327494210765762</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02945266126860608</v>
+        <v>0.03530002305631191</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>85</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1397989727.573365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1195213859.423807</v>
+        <v>1349887514.814268</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07490449028627311</v>
+        <v>0.110107034095795</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0222190111605081</v>
+        <v>0.02591885181794995</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>597606948.7760463</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1143433176.19939</v>
+        <v>1424067540.492952</v>
       </c>
       <c r="F26" t="n">
-        <v>0.118671335463926</v>
+        <v>0.1235928092159512</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02723198385971039</v>
+        <v>0.03634995919630331</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>571716595.2600214</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4163178241.414052</v>
+        <v>3438718813.492567</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1283926788237416</v>
+        <v>0.1442192343155798</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01914710556047216</v>
+        <v>0.02297796845057528</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2081589122.740736</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3247105388.914648</v>
+        <v>2464295816.953488</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1157316659575684</v>
+        <v>0.1157364494746829</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04575629135443364</v>
+        <v>0.04601434178997508</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>98</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1623552727.123203</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5137350085.588137</v>
+        <v>3851780125.373119</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1109573580286799</v>
+        <v>0.151447334858259</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03627661835808812</v>
+        <v>0.03949439965247075</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>130</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2568674980.80855</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1798684844.69035</v>
+        <v>2352239444.678194</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09469916318814413</v>
+        <v>0.1146245818168241</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02599456101654768</v>
+        <v>0.02915316543841609</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>899342436.8777459</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>928627016.3958672</v>
+        <v>1017027811.39961</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1071333179233433</v>
+        <v>0.08674423737527928</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03466041472826815</v>
+        <v>0.03866180003358238</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>464313523.5443176</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1172806584.954361</v>
+        <v>1495212155.853275</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09677552913054621</v>
+        <v>0.1120975087160012</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02996218116849885</v>
+        <v>0.03331469814579465</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>586403293.0363234</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2606689300.182494</v>
+        <v>2129991026.516943</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1872034946426477</v>
+        <v>0.1738062411006956</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05971421304956927</v>
+        <v>0.06113673535056247</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>88</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1303344679.216815</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1457964283.406596</v>
+        <v>1336009994.420062</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1072559554932532</v>
+        <v>0.1013194707666143</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02409943273288456</v>
+        <v>0.02828598686746942</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>728982104.4351503</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1071110158.888839</v>
+        <v>1359405737.081345</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1087892355993312</v>
+        <v>0.07118383978279885</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02747809303366559</v>
+        <v>0.04202693281647507</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>535555082.4247116</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3123057638.306627</v>
+        <v>1997870328.842289</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1107070201373841</v>
+        <v>0.1157578159973146</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02333900305546825</v>
+        <v>0.02700948299607471</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>74</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1561528791.190571</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2018072378.847347</v>
+        <v>2283068003.333542</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07586916480944518</v>
+        <v>0.09051823399409087</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0300824371479102</v>
+        <v>0.0332799432515566</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>77</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1009036219.198749</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1610991083.153277</v>
+        <v>1978386375.369613</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07799083508655306</v>
+        <v>0.08112778114168084</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03520069606745878</v>
+        <v>0.0373497403614769</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>805495575.1548902</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1563481405.581476</v>
+        <v>2109618989.022138</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1911488597186428</v>
+        <v>0.1244450677965577</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02989756873998234</v>
+        <v>0.03107523294346448</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>781740763.5976692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1784088289.885846</v>
+        <v>1216229840.790411</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1174173650177015</v>
+        <v>0.1454595690272555</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04026233309544</v>
+        <v>0.04229340278821513</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>892044040.0123166</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1884854147.997989</v>
+        <v>1908634022.429687</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1484187600375035</v>
+        <v>0.1518408350798503</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04417016675894909</v>
+        <v>0.04632369088083001</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>73</v>
-      </c>
-      <c r="J41" t="n">
-        <v>942427159.4978887</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4201512159.759966</v>
+        <v>3354976131.927773</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09734955803027089</v>
+        <v>0.09616804091960873</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03097882011071535</v>
+        <v>0.02855742807132481</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>100</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2100756123.027092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1954101990.074332</v>
+        <v>2497897144.756145</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1722362581053604</v>
+        <v>0.1638182453447409</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02320733255917187</v>
+        <v>0.02008496312325791</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>107</v>
-      </c>
-      <c r="J43" t="n">
-        <v>977051098.5783081</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1437931960.543185</v>
+        <v>2227593834.847399</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07688823698330899</v>
+        <v>0.06978238779978568</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02641848477890665</v>
+        <v>0.03381853323087716</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>718965974.4669888</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2015224342.659286</v>
+        <v>1729031470.505126</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1196496304882151</v>
+        <v>0.1837933574255123</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0370959086736521</v>
+        <v>0.04817186993081366</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1007612163.73562</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4297239968.757361</v>
+        <v>5265058903.409275</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1515336731290264</v>
+        <v>0.1632234864764977</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05784162042701137</v>
+        <v>0.05159133260410328</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>104</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2148619970.967148</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3296217834.999776</v>
+        <v>3668087816.316555</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1750152918743056</v>
+        <v>0.1786604985700956</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05523856088429228</v>
+        <v>0.03970059645153316</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>79</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1648108876.765486</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4147548752.484426</v>
+        <v>4125267177.509582</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08475488005525528</v>
+        <v>0.08880123090585484</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02363863579576085</v>
+        <v>0.02883109361519209</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>99</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2073774402.014405</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1549023159.825463</v>
+        <v>1627564815.382377</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1653931568696713</v>
+        <v>0.1348108837404587</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03393720164569986</v>
+        <v>0.03026528906163656</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>774511604.3244998</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3215516551.370083</v>
+        <v>4191068470.254523</v>
       </c>
       <c r="F50" t="n">
-        <v>0.108600553440632</v>
+        <v>0.1190890580985993</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03552273388682309</v>
+        <v>0.03996895256772347</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>100</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1607758320.175991</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1398222898.470674</v>
+        <v>1220380049.316073</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1242835183402587</v>
+        <v>0.190321799056134</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04671904447003236</v>
+        <v>0.03496901661969876</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>699111468.6705377</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4322320549.278766</v>
+        <v>4184001342.477113</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1388188427676761</v>
+        <v>0.08378596330435355</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04634253304069504</v>
+        <v>0.04502745523883672</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>121</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2161160312.14599</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3140207888.935916</v>
+        <v>3008744386.324752</v>
       </c>
       <c r="F53" t="n">
-        <v>0.150277493057019</v>
+        <v>0.1305245795013971</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02141371472220693</v>
+        <v>0.02387874461376344</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>83</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1570103967.188385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3427579859.477255</v>
+        <v>3606402727.500759</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1099210660519804</v>
+        <v>0.1678069441124372</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04206286712235337</v>
+        <v>0.03272899441594406</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>96</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1713789948.840016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3631969640.723655</v>
+        <v>3138074829.250865</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1912413419454331</v>
+        <v>0.2066916131839628</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02471340020827109</v>
+        <v>0.027027847264425</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>80</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1815984779.029448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1393015188.996555</v>
+        <v>1736671445.137758</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1189882910490174</v>
+        <v>0.1023378602327816</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04251458668693458</v>
+        <v>0.04696680573007068</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>696507652.5798548</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3988537691.93867</v>
+        <v>3458106766.18236</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1774606860068698</v>
+        <v>0.1321322949609736</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01831110782343269</v>
+        <v>0.02579203975966836</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>93</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1994268933.376245</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1711481592.717779</v>
+        <v>1181006663.240329</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1928028891319681</v>
+        <v>0.1240706034167658</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03009370718103726</v>
+        <v>0.02528299102894519</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>855740808.197715</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3622080483.346762</v>
+        <v>3628502306.904171</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09294638786151012</v>
+        <v>0.1204480085679001</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03039156535419874</v>
+        <v>0.0354678500771955</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>80</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1811040235.859991</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2376487145.087703</v>
+        <v>2449210630.950799</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1667513097706034</v>
+        <v>0.1597626348962866</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02720465830790357</v>
+        <v>0.02672482672337413</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>90</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1188243577.490602</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2675358659.138163</v>
+        <v>2896957940.459458</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1768798489787497</v>
+        <v>0.1763618877432379</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02436387190656168</v>
+        <v>0.03171068702413606</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>100</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1337679340.654237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1398099907.649618</v>
+        <v>1691920430.655397</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1685197493357687</v>
+        <v>0.1567294942286687</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04757307381209261</v>
+        <v>0.04389712766424645</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>699049921.5666513</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4241368086.153993</v>
+        <v>3583238473.551507</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07368264073451632</v>
+        <v>0.09989599882840233</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03109505272345266</v>
+        <v>0.0465749254424798</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>84</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2120684094.678015</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4364130755.879795</v>
+        <v>4527020363.899201</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1805772239230058</v>
+        <v>0.1436025709705714</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03564342014621637</v>
+        <v>0.03377755112852544</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>91</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2182065439.411625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5887080327.95835</v>
+        <v>5819284571.133351</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1341735347809663</v>
+        <v>0.1399855646876919</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02609899615941619</v>
+        <v>0.02353773519151419</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>105</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2943540069.955044</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5297090612.386018</v>
+        <v>4653990211.596025</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1304832736507785</v>
+        <v>0.1102897716304203</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03505390984032931</v>
+        <v>0.04003361989145397</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>85</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2648545349.272522</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2731727720.285801</v>
+        <v>3374385782.355543</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08051561891556673</v>
+        <v>0.1012949993864688</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04676958007718689</v>
+        <v>0.03428498954582408</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>94</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1365863901.086999</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4583463797.294788</v>
+        <v>5508867225.606091</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1190623515956121</v>
+        <v>0.1267987774332168</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04533915853834446</v>
+        <v>0.05064639418759492</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>97</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2291731929.790653</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1633736557.568968</v>
+        <v>2128731392.60034</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1651415464333079</v>
+        <v>0.1280851933517813</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03820425080657249</v>
+        <v>0.05044354259512061</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>816868236.3811028</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3210457827.149885</v>
+        <v>2919481038.081348</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08842165579715359</v>
+        <v>0.06565902442725166</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04203584820740257</v>
+        <v>0.04606209647509827</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>84</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1605228904.334094</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3678886733.610702</v>
+        <v>4896951250.057953</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1554249287331021</v>
+        <v>0.1513793782677651</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02392143821758765</v>
+        <v>0.03082476374723092</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>107</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1839443373.885124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1973643338.054767</v>
+        <v>1914019672.707118</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06802811823252412</v>
+        <v>0.09338255832869385</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05314848667718629</v>
+        <v>0.04510334151954688</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>986821619.6203288</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3051628703.586819</v>
+        <v>2200230138.85427</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09845554792015143</v>
+        <v>0.1107102938009808</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03624605107823796</v>
+        <v>0.03887763491315552</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>111</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1525814343.031144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3648874713.901832</v>
+        <v>3620815910.911235</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1495593307153289</v>
+        <v>0.1226273288676867</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02538783498240466</v>
+        <v>0.0250809681296187</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>100</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1824437366.250332</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1829822087.519897</v>
+        <v>2396215340.506906</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1012890677904259</v>
+        <v>0.1613372634388034</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02753126855549068</v>
+        <v>0.03801503757451401</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>914911023.8988141</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4983538273.972219</v>
+        <v>4420268598.751936</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1031721452702018</v>
+        <v>0.07717242953348492</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02127585863881963</v>
+        <v>0.02516103981691916</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>66</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2491769162.968073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2034929312.15749</v>
+        <v>1697025728.851551</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1514459737875745</v>
+        <v>0.1464165785209734</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02725680719354904</v>
+        <v>0.02960225314970363</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1017464722.736534</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4475984944.488113</v>
+        <v>3422072925.5699</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1072000966952123</v>
+        <v>0.1102272788509289</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0459184846157337</v>
+        <v>0.04542485799689704</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>102</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2237992403.888122</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1679442533.719409</v>
+        <v>1435329944.167659</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1570242234991419</v>
+        <v>0.1323453995724901</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02456688379528468</v>
+        <v>0.02804705708654949</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>839721332.4227973</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4645234396.818769</v>
+        <v>5422683770.314775</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08554722202856611</v>
+        <v>0.09068379619742713</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03592045870362697</v>
+        <v>0.0301784081594608</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>61</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2322617229.97056</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3824875714.546725</v>
+        <v>3879437451.353996</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1305593661576031</v>
+        <v>0.1359754383405653</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02701151008338469</v>
+        <v>0.03282531786843233</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>65</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1912437813.964495</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5700252296.237245</v>
+        <v>5076760439.994556</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1731921699533997</v>
+        <v>0.1941816831604918</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02545433060206326</v>
+        <v>0.01998019138469081</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>104</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2850126092.987651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2075000286.114177</v>
+        <v>1803342474.00883</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09678873177364999</v>
+        <v>0.0997985780666546</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04538402246944565</v>
+        <v>0.03310007657614884</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1037500137.733788</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2117794750.506641</v>
+        <v>2369489597.389537</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08961092673621472</v>
+        <v>0.1132544121013946</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04548101224957886</v>
+        <v>0.04425936629211987</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1058897363.052772</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3680518794.687864</v>
+        <v>2971768821.618484</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1665903050266331</v>
+        <v>0.1601085894058842</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05676097855593312</v>
+        <v>0.04779354635498195</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>111</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1840259532.642711</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2315391154.747658</v>
+        <v>1810644116.926229</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1319548747730934</v>
+        <v>0.1516301091477149</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01763475721727888</v>
+        <v>0.02308956095674638</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>39</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1157695648.869415</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1063827051.912259</v>
+        <v>1270494336.781124</v>
       </c>
       <c r="F87" t="n">
-        <v>0.121445897450064</v>
+        <v>0.1533309246426079</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0368006951396362</v>
+        <v>0.03673136486430016</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>531913546.6360127</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3138330357.332285</v>
+        <v>3291708337.836615</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1498516066690689</v>
+        <v>0.1461031106219809</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03623748633042242</v>
+        <v>0.0342566584789156</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>116</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1569165222.777191</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3514020606.270083</v>
+        <v>3425262625.609002</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1377422855608643</v>
+        <v>0.1167893075349436</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02633086265731074</v>
+        <v>0.03896714376537798</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>99</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1757010303.562278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1596230279.045154</v>
+        <v>1590011869.616981</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1158271340232854</v>
+        <v>0.1272485025907862</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05481009505698113</v>
+        <v>0.04604678316388359</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>798115135.8477681</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1572826460.414</v>
+        <v>1574525567.36358</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1413719885127969</v>
+        <v>0.1385505090338083</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04914913477410769</v>
+        <v>0.05364893716409379</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>786413259.4026175</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2836155822.288108</v>
+        <v>1849419448.853484</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07140500448514595</v>
+        <v>0.06715502176306808</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03740067570240319</v>
+        <v>0.04349381306925471</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>74</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1418077920.480218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3588967042.706747</v>
+        <v>4464157573.089996</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09197168880987501</v>
+        <v>0.09741502632289464</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04201692418086934</v>
+        <v>0.0335830011505835</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1794483548.549204</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1783693427.934266</v>
+        <v>1582389505.387883</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1498648257002962</v>
+        <v>0.1259239835444061</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03990506442176278</v>
+        <v>0.02709471660638578</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>891846684.1485019</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2880140436.193495</v>
+        <v>3223782784.163703</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1098116413667649</v>
+        <v>0.08931373797518148</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03944093227125753</v>
+        <v>0.04875259453959069</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>71</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1440070226.52846</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2399719482.155049</v>
+        <v>2280439558.847687</v>
       </c>
       <c r="F96" t="n">
-        <v>0.116758499753142</v>
+        <v>0.1090578320249232</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03912540611824529</v>
+        <v>0.03932874019342641</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1199859685.381176</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5061863785.796334</v>
+        <v>4270962415.82713</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1621455834811794</v>
+        <v>0.1185885581214348</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01912550108939171</v>
+        <v>0.02719020970747692</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>94</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2530932034.663985</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2494817471.321058</v>
+        <v>2527239809.402893</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1079301283467497</v>
+        <v>0.08472355709736247</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02058441247560222</v>
+        <v>0.02711139252868891</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>77</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1247408686.075291</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2391483912.697109</v>
+        <v>2888833934.067634</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1375035913175595</v>
+        <v>0.1337373973313055</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02394048928913159</v>
+        <v>0.03087147759042087</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>92</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1195741898.186629</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4510215226.899406</v>
+        <v>4494289996.737017</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1772116999128183</v>
+        <v>0.1374840240323447</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02713959572587805</v>
+        <v>0.02574392483731799</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>89</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2255107724.844752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3600434673.532331</v>
+        <v>3508014153.373844</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1563482046820902</v>
+        <v>0.1775333414101666</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05150426745689562</v>
+        <v>0.03665546855450835</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>116</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1800217505.212063</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_293.xlsx
+++ b/output/fit_clients/fit_round_293.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1524914597.446837</v>
+        <v>1578467878.201537</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06924825524295913</v>
+        <v>0.07457495312012453</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03705930032659845</v>
+        <v>0.04206265708668949</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2031510667.029083</v>
+        <v>1789639341.844739</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1182010550604909</v>
+        <v>0.1120970465883228</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03059237566954925</v>
+        <v>0.03992741467730287</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4841626967.861408</v>
+        <v>5062556350.056176</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1009981412219253</v>
+        <v>0.1667734124063495</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03314433194320902</v>
+        <v>0.03780501300181337</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3484763892.105002</v>
+        <v>2603243910.008257</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1040644970845241</v>
+        <v>0.1032198080066946</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04837474043728091</v>
+        <v>0.03426118113059729</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1878737608.700293</v>
+        <v>2382858082.272722</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09291852434656069</v>
+        <v>0.0946267771133234</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05442732010906738</v>
+        <v>0.03954502814749868</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2177366628.605237</v>
+        <v>2330834872.03546</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09064382082970901</v>
+        <v>0.07965114574652962</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03779214377256959</v>
+        <v>0.04496724336753715</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2808261786.179546</v>
+        <v>3291718331.025004</v>
       </c>
       <c r="F8" t="n">
-        <v>0.137258878607776</v>
+        <v>0.1350843620524928</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03244381228317172</v>
+        <v>0.02081240222939508</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1733153895.791644</v>
+        <v>1548157792.404144</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1839350359421574</v>
+        <v>0.1959137619758194</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03024285930710103</v>
+        <v>0.03284981090776836</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4965716109.027237</v>
+        <v>4709033609.985278</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2158340198603737</v>
+        <v>0.1536161246768568</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03760625040328539</v>
+        <v>0.04664216323605334</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3103615409.949616</v>
+        <v>4066736276.731586</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1804609116799769</v>
+        <v>0.1486610774322232</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04036971369759856</v>
+        <v>0.04272242180271565</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2344575072.086156</v>
+        <v>2325755895.328902</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1851488002089096</v>
+        <v>0.1423120599307227</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0463316855319352</v>
+        <v>0.05258824534721736</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5248568256.254425</v>
+        <v>4179748796.453704</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09972986022291967</v>
+        <v>0.1010844109977399</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01973874226524142</v>
+        <v>0.02278623085994917</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3192218790.99909</v>
+        <v>3789035138.945373</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1483023240568749</v>
+        <v>0.1689472236976334</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04242245757072945</v>
+        <v>0.03745871308008862</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1824221689.964306</v>
+        <v>1541226250.710818</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07416604158151688</v>
+        <v>0.08054806259917947</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04182871581078291</v>
+        <v>0.04194892836643409</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2228919782.787689</v>
+        <v>2173113027.221033</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08779725335574259</v>
+        <v>0.0968621181730388</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04666667119611696</v>
+        <v>0.0396891906616367</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5235713151.80451</v>
+        <v>4544145747.047786</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1706526820617907</v>
+        <v>0.1571080608691504</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04741730204038008</v>
+        <v>0.03716838578906632</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3890408249.316922</v>
+        <v>3968105459.756064</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1710874978161287</v>
+        <v>0.1436751594141115</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02915590582974561</v>
+        <v>0.03096384923013147</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1292445688.574313</v>
+        <v>1315325725.444974</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1777962652812113</v>
+        <v>0.1677171893828426</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01989791963093514</v>
+        <v>0.01784791867242893</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2048216863.190403</v>
+        <v>2525878665.91151</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1339754547623787</v>
+        <v>0.1337676578907513</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03122597008143698</v>
+        <v>0.02895139413788782</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1700702173.730063</v>
+        <v>2215323272.482345</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08146025341766085</v>
+        <v>0.1004117887511634</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03233037327115442</v>
+        <v>0.03543431502652028</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2939870948.585969</v>
+        <v>2501988812.165813</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1252047014150375</v>
+        <v>0.1345791252649574</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05348925830741337</v>
+        <v>0.0351083000402297</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1042696772.058123</v>
+        <v>1056960563.90638</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1602878089561548</v>
+        <v>0.1382853021460234</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05250373159047262</v>
+        <v>0.04535778831639917</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3410141514.705371</v>
+        <v>3830586445.124952</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1327494210765762</v>
+        <v>0.1426612335717452</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03530002305631191</v>
+        <v>0.02987720778960544</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1349887514.814268</v>
+        <v>1379209076.794069</v>
       </c>
       <c r="F25" t="n">
-        <v>0.110107034095795</v>
+        <v>0.1065864155435017</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02591885181794995</v>
+        <v>0.02658061544350443</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1424067540.492952</v>
+        <v>1366461123.29028</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1235928092159512</v>
+        <v>0.1191307217455245</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03634995919630331</v>
+        <v>0.02705176582457043</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3438718813.492567</v>
+        <v>4421960115.819995</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1442192343155798</v>
+        <v>0.1078106387810792</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02297796845057528</v>
+        <v>0.0199409748646883</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2464295816.953488</v>
+        <v>2448220427.96252</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1157364494746829</v>
+        <v>0.108988941877167</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04601434178997508</v>
+        <v>0.03793888777572771</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3851780125.373119</v>
+        <v>5055400706.702093</v>
       </c>
       <c r="F29" t="n">
-        <v>0.151447334858259</v>
+        <v>0.1194772712428309</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03949439965247075</v>
+        <v>0.04430323253390358</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2352239444.678194</v>
+        <v>2263667681.392048</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1146245818168241</v>
+        <v>0.1085895008864911</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02915316543841609</v>
+        <v>0.03654827373582728</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1017027811.39961</v>
+        <v>1060862863.416711</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08674423737527928</v>
+        <v>0.08334459517871687</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03866180003358238</v>
+        <v>0.03805215134601589</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1495212155.853275</v>
+        <v>1651889962.36601</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1120975087160012</v>
+        <v>0.0753057138912856</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03331469814579465</v>
+        <v>0.03014398146062463</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2129991026.516943</v>
+        <v>2580224830.620654</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1738062411006956</v>
+        <v>0.2003762254304611</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06113673535056247</v>
+        <v>0.06081069786037938</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1336009994.420062</v>
+        <v>1554441331.103066</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1013194707666143</v>
+        <v>0.09294991805262984</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02828598686746942</v>
+        <v>0.02507783709193295</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1359405737.081345</v>
+        <v>891325002.9272871</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07118383978279885</v>
+        <v>0.09332479961580796</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04202693281647507</v>
+        <v>0.03870244804105328</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1997870328.842289</v>
+        <v>2459125200.734063</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1157578159973146</v>
+        <v>0.1560675426178665</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02700948299607471</v>
+        <v>0.02444874824075086</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2283068003.333542</v>
+        <v>1881174363.928222</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09051823399409087</v>
+        <v>0.07451956169185897</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0332799432515566</v>
+        <v>0.0417927231779034</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1978386375.369613</v>
+        <v>2074214180.614743</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08112778114168084</v>
+        <v>0.09167945409867893</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0373497403614769</v>
+        <v>0.0307031235215386</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2109618989.022138</v>
+        <v>1909839001.176029</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1244450677965577</v>
+        <v>0.1195289967231791</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03107523294346448</v>
+        <v>0.02495614077545939</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1216229840.790411</v>
+        <v>1164116680.663126</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1454595690272555</v>
+        <v>0.1509808958993476</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04229340278821513</v>
+        <v>0.05536275566919897</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1908634022.429687</v>
+        <v>2868708102.676131</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1518408350798503</v>
+        <v>0.1073561406822999</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04632369088083001</v>
+        <v>0.04315151548544435</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3354976131.927773</v>
+        <v>3846599758.090176</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09616804091960873</v>
+        <v>0.08375392499208949</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02855742807132481</v>
+        <v>0.04460266342260807</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2497897144.756145</v>
+        <v>2146135082.304868</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1638182453447409</v>
+        <v>0.1999188706531888</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02008496312325791</v>
+        <v>0.02594369151903774</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2227593834.847399</v>
+        <v>2210811611.451648</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06978238779978568</v>
+        <v>0.09142707891321658</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03381853323087716</v>
+        <v>0.03463207665456291</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1729031470.505126</v>
+        <v>1751626222.447038</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1837933574255123</v>
+        <v>0.1709714061553342</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04817186993081366</v>
+        <v>0.03936864529217576</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5265058903.409275</v>
+        <v>3465727080.467368</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1632234864764977</v>
+        <v>0.1287062730973373</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05159133260410328</v>
+        <v>0.05293877283959999</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3668087816.316555</v>
+        <v>3212296611.919205</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1786604985700956</v>
+        <v>0.1263989849490467</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03970059645153316</v>
+        <v>0.04982596571413643</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4125267177.509582</v>
+        <v>4602504401.591787</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08880123090585484</v>
+        <v>0.07466795768672602</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02883109361519209</v>
+        <v>0.02703535972793723</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1627564815.382377</v>
+        <v>1865989575.060702</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1348108837404587</v>
+        <v>0.1683448729729174</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03026528906163656</v>
+        <v>0.02861328860529287</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4191068470.254523</v>
+        <v>3271706683.669046</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1190890580985993</v>
+        <v>0.1620586135775197</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03996895256772347</v>
+        <v>0.03651072077321886</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1220380049.316073</v>
+        <v>1391061558.098146</v>
       </c>
       <c r="F51" t="n">
-        <v>0.190321799056134</v>
+        <v>0.1266863569042592</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03496901661969876</v>
+        <v>0.05247216148163186</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4184001342.477113</v>
+        <v>3677597426.006715</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08378596330435355</v>
+        <v>0.114758126740799</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04502745523883672</v>
+        <v>0.04703618420494372</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3008744386.324752</v>
+        <v>3733125461.108284</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1305245795013971</v>
+        <v>0.1342462756861413</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02387874461376344</v>
+        <v>0.03532238873312194</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3606402727.500759</v>
+        <v>4327854553.771214</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1678069441124372</v>
+        <v>0.1335801779353259</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03272899441594406</v>
+        <v>0.03612472974390333</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3138074829.250865</v>
+        <v>3662633026.394334</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2066916131839628</v>
+        <v>0.2144607397706206</v>
       </c>
       <c r="G55" t="n">
-        <v>0.027027847264425</v>
+        <v>0.02388765093392221</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1736671445.137758</v>
+        <v>1474635768.553811</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1023378602327816</v>
+        <v>0.1374953861688063</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04696680573007068</v>
+        <v>0.05338540477691886</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3458106766.18236</v>
+        <v>3803863168.07937</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1321322949609736</v>
+        <v>0.1328299020693534</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02579203975966836</v>
+        <v>0.02433358542122701</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1181006663.240329</v>
+        <v>1697286375.111643</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1240706034167658</v>
+        <v>0.1537830551480646</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02528299102894519</v>
+        <v>0.03914760901668721</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3628502306.904171</v>
+        <v>5054314833.640956</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1204480085679001</v>
+        <v>0.1261687034848661</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0354678500771955</v>
+        <v>0.04725313355773731</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2449210630.950799</v>
+        <v>2846074483.784921</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1597626348962866</v>
+        <v>0.1506707561094548</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02672482672337413</v>
+        <v>0.02814022588929288</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2896957940.459458</v>
+        <v>3072561687.771255</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1763618877432379</v>
+        <v>0.1553689895008103</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03171068702413606</v>
+        <v>0.02793657039837022</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1691920430.655397</v>
+        <v>1352902384.53867</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1567294942286687</v>
+        <v>0.1173917179232957</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04389712766424645</v>
+        <v>0.03291721663840961</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3583238473.551507</v>
+        <v>5307407692.598785</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09989599882840233</v>
+        <v>0.1014244683577915</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0465749254424798</v>
+        <v>0.04672885907687887</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,13 +2222,13 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4527020363.899201</v>
+        <v>5050143554.658584</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1436025709705714</v>
+        <v>0.1876021937802731</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03377755112852544</v>
+        <v>0.02717841516162858</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5819284571.133351</v>
+        <v>3802745762.58842</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1399855646876919</v>
+        <v>0.1709737491546037</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02353773519151419</v>
+        <v>0.02225855842834589</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4653990211.596025</v>
+        <v>5217674032.71495</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1102897716304203</v>
+        <v>0.1096554898872234</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04003361989145397</v>
+        <v>0.04285733151907837</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3374385782.355543</v>
+        <v>2568987641.452787</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1012949993864688</v>
+        <v>0.1020479236148674</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03428498954582408</v>
+        <v>0.04330647085712716</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5508867225.606091</v>
+        <v>3698094548.553624</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1267987774332168</v>
+        <v>0.1014556955709687</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05064639418759492</v>
+        <v>0.03799190118506195</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2128731392.60034</v>
+        <v>1938964643.926294</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1280851933517813</v>
+        <v>0.1353479431848489</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05044354259512061</v>
+        <v>0.04714110486715841</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2919481038.081348</v>
+        <v>3657645057.384355</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06565902442725166</v>
+        <v>0.1001046051599384</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04606209647509827</v>
+        <v>0.0330364927190074</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4896951250.057953</v>
+        <v>5009641095.162357</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1513793782677651</v>
+        <v>0.1291049852897879</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03082476374723092</v>
+        <v>0.02164107868118665</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1914019672.707118</v>
+        <v>1446384735.837988</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09338255832869385</v>
+        <v>0.08127348869879752</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04510334151954688</v>
+        <v>0.04064899263313195</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2200230138.85427</v>
+        <v>3318626458.098367</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1107102938009808</v>
+        <v>0.09533067560978241</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03887763491315552</v>
+        <v>0.04199777016993814</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3620815910.911235</v>
+        <v>3390613396.365484</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1226273288676867</v>
+        <v>0.1141229825905755</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0250809681296187</v>
+        <v>0.0289898949063209</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2396215340.506906</v>
+        <v>2500909666.658168</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1613372634388034</v>
+        <v>0.1455512159486805</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03801503757451401</v>
+        <v>0.02348068741998381</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4420268598.751936</v>
+        <v>4723043706.897383</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07717242953348492</v>
+        <v>0.1076261001059829</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02516103981691916</v>
+        <v>0.03335136783788005</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1697025728.851551</v>
+        <v>2066265677.565201</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1464165785209734</v>
+        <v>0.1448778387961823</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02960225314970363</v>
+        <v>0.02959147921699517</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3422072925.5699</v>
+        <v>4023272174.78422</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1102272788509289</v>
+        <v>0.09220099314830896</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04542485799689704</v>
+        <v>0.05193351492211885</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1435329944.167659</v>
+        <v>1698068356.039498</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1323453995724901</v>
+        <v>0.1604924963705359</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02804705708654949</v>
+        <v>0.0377531711572719</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5422683770.314775</v>
+        <v>3446967468.907477</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09068379619742713</v>
+        <v>0.1010560630916674</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0301784081594608</v>
+        <v>0.02945601463966836</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3879437451.353996</v>
+        <v>3211371371.008315</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1359754383405653</v>
+        <v>0.08341583542631255</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03282531786843233</v>
+        <v>0.02366493058657109</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5076760439.994556</v>
+        <v>4507643311.555219</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1941816831604918</v>
+        <v>0.1710687744225146</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01998019138469081</v>
+        <v>0.02525638553437221</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1803342474.00883</v>
+        <v>2040568551.446215</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0997985780666546</v>
+        <v>0.1270622411223592</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03310007657614884</v>
+        <v>0.02761255424147609</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2369489597.389537</v>
+        <v>2377024710.76745</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1132544121013946</v>
+        <v>0.09087383473663851</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04425936629211987</v>
+        <v>0.04449636022739212</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2971768821.618484</v>
+        <v>3334853559.328317</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1601085894058842</v>
+        <v>0.1720698284218009</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04779354635498195</v>
+        <v>0.04822876295452221</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1810644116.926229</v>
+        <v>2295860353.813022</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1516301091477149</v>
+        <v>0.1116409966812173</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02308956095674638</v>
+        <v>0.01805905042254486</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1270494336.781124</v>
+        <v>1379372618.541403</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1533309246426079</v>
+        <v>0.141319440005721</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03673136486430016</v>
+        <v>0.03514742046724514</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3291708337.836615</v>
+        <v>2789655667.025397</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1461031106219809</v>
+        <v>0.1599620204692645</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0342566584789156</v>
+        <v>0.02937321080809958</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3425262625.609002</v>
+        <v>2604212148.747479</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1167893075349436</v>
+        <v>0.1432273509219554</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03896714376537798</v>
+        <v>0.02875981386486775</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1590011869.616981</v>
+        <v>1570605163.239762</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1272485025907862</v>
+        <v>0.1102502082843481</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04604678316388359</v>
+        <v>0.03647659432961506</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1574525567.36358</v>
+        <v>1827472739.946846</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1385505090338083</v>
+        <v>0.1701315678545242</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05364893716409379</v>
+        <v>0.04216462028347093</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1849419448.853484</v>
+        <v>2141002564.240942</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06715502176306808</v>
+        <v>0.1046852950695838</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04349381306925471</v>
+        <v>0.03860344535266529</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4464157573.089996</v>
+        <v>4645099745.593751</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09741502632289464</v>
+        <v>0.1165771497279521</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0335830011505835</v>
+        <v>0.04414017558558212</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1582389505.387883</v>
+        <v>2518471778.769613</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1259239835444061</v>
+        <v>0.1246163096874353</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02709471660638578</v>
+        <v>0.03992808185238139</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3223782784.163703</v>
+        <v>3119118866.260968</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08931373797518148</v>
+        <v>0.09304299129333694</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04875259453959069</v>
+        <v>0.04067148621749421</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2280439558.847687</v>
+        <v>1846429911.281449</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1090578320249232</v>
+        <v>0.1204777447803513</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03932874019342641</v>
+        <v>0.04591347632508352</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4270962415.82713</v>
+        <v>4181934126.030354</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1185885581214348</v>
+        <v>0.1449861867665959</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02719020970747692</v>
+        <v>0.02253336487755169</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2527239809.402893</v>
+        <v>2619130068.872042</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08472355709736247</v>
+        <v>0.1103181459448255</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02711139252868891</v>
+        <v>0.02635665382971576</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2888833934.067634</v>
+        <v>2365823279.373869</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1337373973313055</v>
+        <v>0.1380557469432627</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03087147759042087</v>
+        <v>0.02868765865864252</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4494289996.737017</v>
+        <v>3113969179.263602</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1374840240323447</v>
+        <v>0.143963409272248</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02574392483731799</v>
+        <v>0.02325182447997416</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3508014153.373844</v>
+        <v>3477525982.414263</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1775333414101666</v>
+        <v>0.1937654281571017</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03665546855450835</v>
+        <v>0.04847021566412154</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_293.xlsx
+++ b/output/fit_clients/fit_round_293.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1578467878.201537</v>
+        <v>1636900709.332244</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07457495312012453</v>
+        <v>0.1050186782864044</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04206265708668949</v>
+        <v>0.03822143583905761</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1789639341.844739</v>
+        <v>1611701690.358989</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1120970465883228</v>
+        <v>0.1614150969276958</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03992741467730287</v>
+        <v>0.03768103264622586</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5062556350.056176</v>
+        <v>3856053615.048114</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1667734124063495</v>
+        <v>0.1013952871039479</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03780501300181337</v>
+        <v>0.03110851322006407</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>155</v>
+      </c>
+      <c r="J4" t="n">
+        <v>292</v>
+      </c>
+      <c r="K4" t="n">
+        <v>69.05159519736063</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2603243910.008257</v>
+        <v>4241524651.911663</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1032198080066946</v>
+        <v>0.09542417907506189</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03426118113059729</v>
+        <v>0.04997721754514979</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>120</v>
+      </c>
+      <c r="J5" t="n">
+        <v>293</v>
+      </c>
+      <c r="K5" t="n">
+        <v>101.1660669264626</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2382858082.272722</v>
+        <v>2629722207.189827</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0946267771133234</v>
+        <v>0.1493434443820994</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03954502814749868</v>
+        <v>0.04275173891675973</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2330834872.03546</v>
+        <v>2166425675.967646</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07965114574652962</v>
+        <v>0.08405896731296565</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04496724336753715</v>
+        <v>0.03551198937484445</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3291718331.025004</v>
+        <v>2564328525.871679</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1350843620524928</v>
+        <v>0.1941155578599885</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02081240222939508</v>
+        <v>0.0305999162019743</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>78</v>
+      </c>
+      <c r="J8" t="n">
+        <v>289</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1548157792.404144</v>
+        <v>1769210242.700573</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1959137619758194</v>
+        <v>0.1456798637520232</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03284981090776836</v>
+        <v>0.0224994132228234</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +785,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4709033609.985278</v>
+        <v>5826005425.302291</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1536161246768568</v>
+        <v>0.1510827537692032</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04664216323605334</v>
+        <v>0.0401439918739173</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>261</v>
+      </c>
+      <c r="J10" t="n">
+        <v>292</v>
+      </c>
+      <c r="K10" t="n">
+        <v>85.95209840377325</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +822,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4066736276.731586</v>
+        <v>3046937078.491126</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1486610774322232</v>
+        <v>0.136929378997643</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04272242180271565</v>
+        <v>0.03067008711303424</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>118</v>
+      </c>
+      <c r="J11" t="n">
+        <v>289</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2325755895.328902</v>
+        <v>2664891366.258509</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1423120599307227</v>
+        <v>0.1220881268071998</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05258824534721736</v>
+        <v>0.04496237174263528</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4179748796.453704</v>
+        <v>3929884922.450735</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1010844109977399</v>
+        <v>0.08580452494652921</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02278623085994917</v>
+        <v>0.01932717898468284</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>150</v>
+      </c>
+      <c r="J13" t="n">
+        <v>292</v>
+      </c>
+      <c r="K13" t="n">
+        <v>75.2240233673826</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +923,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3789035138.945373</v>
+        <v>3113442680.932278</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1689472236976334</v>
+        <v>0.1494148475976413</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03745871308008862</v>
+        <v>0.03843580856806809</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>61</v>
+      </c>
+      <c r="J14" t="n">
+        <v>292</v>
+      </c>
+      <c r="K14" t="n">
+        <v>54.93051876986045</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1541226250.710818</v>
+        <v>1837214260.51003</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08054806259917947</v>
+        <v>0.08029076879405239</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04194892836643409</v>
+        <v>0.04149651886407349</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2173113027.221033</v>
+        <v>2232889705.295237</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0968621181730388</v>
+        <v>0.1058070602175274</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0396891906616367</v>
+        <v>0.03869634959469165</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1030,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4544145747.047786</v>
+        <v>4684149945.959522</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1571080608691504</v>
+        <v>0.1750998375488009</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03716838578906632</v>
+        <v>0.04117315945654147</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>139</v>
+      </c>
+      <c r="J17" t="n">
+        <v>293</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3968105459.756064</v>
+        <v>2574535566.396318</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1436751594141115</v>
+        <v>0.1662270316788919</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03096384923013147</v>
+        <v>0.02253079464150052</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>75</v>
+      </c>
+      <c r="J18" t="n">
+        <v>291</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1315325725.444974</v>
+        <v>1221396120.830194</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1677171893828426</v>
+        <v>0.1206534126367712</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01784791867242893</v>
+        <v>0.02577340006370685</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2525878665.91151</v>
+        <v>2369362103.237995</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1337676578907513</v>
+        <v>0.1474033398258247</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02895139413788782</v>
+        <v>0.02191512463539978</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2215323272.482345</v>
+        <v>2407204942.091452</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1004117887511634</v>
+        <v>0.06893612657302327</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03543431502652028</v>
+        <v>0.03317852214288302</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2501988812.165813</v>
+        <v>2677076181.157753</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1345791252649574</v>
+        <v>0.1137114691477024</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0351083000402297</v>
+        <v>0.0548594887871974</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>79</v>
+      </c>
+      <c r="J22" t="n">
+        <v>291</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1056960563.90638</v>
+        <v>1082799260.36275</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1382853021460234</v>
+        <v>0.1301865360344294</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04535778831639917</v>
+        <v>0.05211422866566917</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1275,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3830586445.124952</v>
+        <v>3067433259.138523</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1426612335717452</v>
+        <v>0.1284472035023721</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02987720778960544</v>
+        <v>0.0374516210228474</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>87</v>
+      </c>
+      <c r="J24" t="n">
+        <v>292</v>
+      </c>
+      <c r="K24" t="n">
+        <v>45.58818107011973</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1379209076.794069</v>
+        <v>1450998672.729397</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1065864155435017</v>
+        <v>0.08010599145428207</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02658061544350443</v>
+        <v>0.03082503666511505</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1366461123.29028</v>
+        <v>1456114744.308523</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1191307217455245</v>
+        <v>0.1124362186163285</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02705176582457043</v>
+        <v>0.02750927073465667</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4421960115.819995</v>
+        <v>3873579277.750395</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1078106387810792</v>
+        <v>0.15487149506548</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0199409748646883</v>
+        <v>0.01931582859419747</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>120</v>
+      </c>
+      <c r="J27" t="n">
+        <v>293</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2448220427.96252</v>
+        <v>3214002547.058338</v>
       </c>
       <c r="F28" t="n">
-        <v>0.108988941877167</v>
+        <v>0.1416824439320614</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03793888777572771</v>
+        <v>0.04026280863879647</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>61</v>
+      </c>
+      <c r="J28" t="n">
+        <v>293</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5055400706.702093</v>
+        <v>5059408832.895114</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1194772712428309</v>
+        <v>0.1413828733116096</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04430323253390358</v>
+        <v>0.03166669851351023</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>278</v>
+      </c>
+      <c r="J29" t="n">
+        <v>292</v>
+      </c>
+      <c r="K29" t="n">
+        <v>86.45511417965503</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1495,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2263667681.392048</v>
+        <v>2297222025.085776</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1085895008864911</v>
+        <v>0.1215138575886336</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03654827373582728</v>
+        <v>0.02858760234227182</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1060862863.416711</v>
+        <v>1214118089.247744</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08334459517871687</v>
+        <v>0.07711363691910932</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03805215134601589</v>
+        <v>0.04298468258858693</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1651889962.36601</v>
+        <v>1839999278.769868</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0753057138912856</v>
+        <v>0.07876558143314427</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03014398146062463</v>
+        <v>0.03510031901347383</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2580224830.620654</v>
+        <v>2820946519.237742</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2003762254304611</v>
+        <v>0.1348164495753239</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06081069786037938</v>
+        <v>0.04087336969315558</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1635,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1554441331.103066</v>
+        <v>1452745843.306488</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09294991805262984</v>
+        <v>0.09456808178520183</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02507783709193295</v>
+        <v>0.02084379085694563</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>891325002.9272871</v>
+        <v>1161929026.191846</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09332479961580796</v>
+        <v>0.1045264793389263</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03870244804105328</v>
+        <v>0.03186422857992118</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2459125200.734063</v>
+        <v>3013222991.091517</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1560675426178665</v>
+        <v>0.1150382841666753</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02444874824075086</v>
+        <v>0.02484569078134395</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1740,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1881174363.928222</v>
+        <v>1788639053.701586</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07451956169185897</v>
+        <v>0.07720038636782352</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0417927231779034</v>
+        <v>0.03258191664119064</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1775,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2074214180.614743</v>
+        <v>1737244845.609447</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09167945409867893</v>
+        <v>0.1110148763825254</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0307031235215386</v>
+        <v>0.0309364851258006</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1909839001.176029</v>
+        <v>1391242183.612051</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1195289967231791</v>
+        <v>0.1190631011802089</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02495614077545939</v>
+        <v>0.03227917631797773</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1164116680.663126</v>
+        <v>1213900223.88028</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1509808958993476</v>
+        <v>0.1072028917749417</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05536275566919897</v>
+        <v>0.03643278904135758</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2868708102.676131</v>
+        <v>2144287608.719533</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1073561406822999</v>
+        <v>0.1099306841012836</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04315151548544435</v>
+        <v>0.03446892889486289</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3846599758.090176</v>
+        <v>3094921635.417692</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08375392499208949</v>
+        <v>0.104670671537835</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04460266342260807</v>
+        <v>0.03032035930119371</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>121</v>
+      </c>
+      <c r="J42" t="n">
+        <v>291</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1950,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2146135082.304868</v>
+        <v>2882874471.450571</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1999188706531888</v>
+        <v>0.1472500521794191</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02594369151903774</v>
+        <v>0.01629544780904091</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2210811611.451648</v>
+        <v>1697552093.330943</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09142707891321658</v>
+        <v>0.07414639218443717</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03463207665456291</v>
+        <v>0.02594390376256688</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1751626222.447038</v>
+        <v>2374876751.767714</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1709714061553342</v>
+        <v>0.1508215246499052</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03936864529217576</v>
+        <v>0.05362930269659034</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3465727080.467368</v>
+        <v>4552229311.317204</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1287062730973373</v>
+        <v>0.1446856801550777</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05293877283959999</v>
+        <v>0.0582456875341416</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>173</v>
+      </c>
+      <c r="J46" t="n">
+        <v>293</v>
+      </c>
+      <c r="K46" t="n">
+        <v>87.1172398270042</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2092,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3212296611.919205</v>
+        <v>3159228226.262771</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1263989849490467</v>
+        <v>0.1443301823579182</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04982596571413643</v>
+        <v>0.0530712265038785</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>131</v>
+      </c>
+      <c r="J47" t="n">
+        <v>292</v>
+      </c>
+      <c r="K47" t="n">
+        <v>40.87907618002735</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4602504401.591787</v>
+        <v>2946535662.177593</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07466795768672602</v>
+        <v>0.09138607000689912</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02703535972793723</v>
+        <v>0.03575689177286496</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>146</v>
+      </c>
+      <c r="J48" t="n">
+        <v>291</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1865989575.060702</v>
+        <v>1326534215.93691</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1683448729729174</v>
+        <v>0.1710774761849889</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02861328860529287</v>
+        <v>0.02838152996768016</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3271706683.669046</v>
+        <v>3384807747.001303</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1620586135775197</v>
+        <v>0.1287818790934906</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03651072077321886</v>
+        <v>0.03765986068207066</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>94</v>
+      </c>
+      <c r="J50" t="n">
+        <v>292</v>
+      </c>
+      <c r="K50" t="n">
+        <v>60.79431021939067</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2236,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1391061558.098146</v>
+        <v>1482257576.080808</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1266863569042592</v>
+        <v>0.1256532416902628</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05247216148163186</v>
+        <v>0.04338644390068559</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2265,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3677597426.006715</v>
+        <v>3579192656.102565</v>
       </c>
       <c r="F52" t="n">
-        <v>0.114758126740799</v>
+        <v>0.1049714690295463</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04703618420494372</v>
+        <v>0.05151568516002543</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>181</v>
+      </c>
+      <c r="J52" t="n">
+        <v>293</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3733125461.108284</v>
+        <v>3621940510.633323</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1342462756861413</v>
+        <v>0.1240108253167816</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03532238873312194</v>
+        <v>0.02730781472868505</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>40</v>
+      </c>
+      <c r="J53" t="n">
+        <v>293</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4327854553.771214</v>
+        <v>4907104480.569715</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1335801779353259</v>
+        <v>0.1635609644013172</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03612472974390333</v>
+        <v>0.04923062518773389</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>154</v>
+      </c>
+      <c r="J54" t="n">
+        <v>293</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3662633026.394334</v>
+        <v>3267639799.665194</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2144607397706206</v>
+        <v>0.1562716785967998</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02388765093392221</v>
+        <v>0.02877816389284272</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>133</v>
+      </c>
+      <c r="J55" t="n">
+        <v>293</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1474635768.553811</v>
+        <v>1616281641.640951</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1374953861688063</v>
+        <v>0.1048664460732183</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05338540477691886</v>
+        <v>0.05334719012359793</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3803863168.07937</v>
+        <v>2974627235.611437</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1328299020693534</v>
+        <v>0.1188568713671325</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02433358542122701</v>
+        <v>0.01970683769856041</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>119</v>
+      </c>
+      <c r="J57" t="n">
+        <v>292</v>
+      </c>
+      <c r="K57" t="n">
+        <v>44.21282717489244</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1697286375.111643</v>
+        <v>1191437409.145522</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1537830551480646</v>
+        <v>0.1230297702837234</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03914760901668721</v>
+        <v>0.02786229734836586</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2518,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5054314833.640956</v>
+        <v>4276875439.083035</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1261687034848661</v>
+        <v>0.08530004582055628</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04725313355773731</v>
+        <v>0.04311562720379909</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>141</v>
+      </c>
+      <c r="J59" t="n">
+        <v>293</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2846074483.784921</v>
+        <v>2803693610.996877</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1506707561094548</v>
+        <v>0.163496986245044</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02814022588929288</v>
+        <v>0.02854812493411367</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>48</v>
+      </c>
+      <c r="J60" t="n">
+        <v>286</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3072561687.771255</v>
+        <v>2462846723.646824</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1553689895008103</v>
+        <v>0.116358576908847</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02793657039837022</v>
+        <v>0.02835923777031168</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1352902384.53867</v>
+        <v>1929310704.671709</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1173917179232957</v>
+        <v>0.1660030211636049</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03291721663840961</v>
+        <v>0.04221325713762605</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5307407692.598785</v>
+        <v>5597439807.893006</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1014244683577915</v>
+        <v>0.09577325804611446</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04672885907687887</v>
+        <v>0.04107232659070589</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>142</v>
+      </c>
+      <c r="J63" t="n">
+        <v>293</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5050143554.658584</v>
+        <v>4634477263.284422</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1876021937802731</v>
+        <v>0.1857448445801609</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02717841516162858</v>
+        <v>0.03079503927169386</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>144</v>
+      </c>
+      <c r="J64" t="n">
+        <v>292</v>
+      </c>
+      <c r="K64" t="n">
+        <v>84.8626200965373</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3802745762.58842</v>
+        <v>5549363766.463476</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1709737491546037</v>
+        <v>0.1224538923802821</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02225855842834589</v>
+        <v>0.02648308462539102</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>234</v>
+      </c>
+      <c r="J65" t="n">
+        <v>293</v>
+      </c>
+      <c r="K65" t="n">
+        <v>86.98713811367602</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5217674032.71495</v>
+        <v>4263692625.020167</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1096554898872234</v>
+        <v>0.1564178197768446</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04285733151907837</v>
+        <v>0.04372474962433556</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>144</v>
+      </c>
+      <c r="J66" t="n">
+        <v>293</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2568987641.452787</v>
+        <v>2414730319.816555</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1020479236148674</v>
+        <v>0.08843487274746932</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04330647085712716</v>
+        <v>0.04358376685698572</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3698094548.553624</v>
+        <v>5778644022.606168</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1014556955709687</v>
+        <v>0.127872620298591</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03799190118506195</v>
+        <v>0.04218247166000759</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>155</v>
+      </c>
+      <c r="J68" t="n">
+        <v>292</v>
+      </c>
+      <c r="K68" t="n">
+        <v>85.00606411887981</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1938964643.926294</v>
+        <v>2135448320.173649</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1353479431848489</v>
+        <v>0.1146687228118471</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04714110486715841</v>
+        <v>0.04963772478920211</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3657645057.384355</v>
+        <v>2599526496.684613</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1001046051599384</v>
+        <v>0.08508878691989226</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0330364927190074</v>
+        <v>0.03390726643908363</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>43</v>
+      </c>
+      <c r="J70" t="n">
+        <v>291</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2944,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5009641095.162357</v>
+        <v>4781069136.503016</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1291049852897879</v>
+        <v>0.1858137090225241</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02164107868118665</v>
+        <v>0.023158270709419</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>219</v>
+      </c>
+      <c r="J71" t="n">
+        <v>293</v>
+      </c>
+      <c r="K71" t="n">
+        <v>87.82363249276614</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1446384735.837988</v>
+        <v>1466012938.102857</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08127348869879752</v>
+        <v>0.07437643580416112</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04064899263313195</v>
+        <v>0.0368165128736723</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3318626458.098367</v>
+        <v>3245422942.74802</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09533067560978241</v>
+        <v>0.07865446260182229</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04199777016993814</v>
+        <v>0.03248242015824061</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>18</v>
+      </c>
+      <c r="J73" t="n">
+        <v>293</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3390613396.365484</v>
+        <v>2502565278.442046</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1141229825905755</v>
+        <v>0.1842820275463849</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0289898949063209</v>
+        <v>0.02387497201277318</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>78</v>
+      </c>
+      <c r="J74" t="n">
+        <v>290</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2500909666.658168</v>
+        <v>2377873780.460272</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1455512159486805</v>
+        <v>0.16298913196231</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02348068741998381</v>
+        <v>0.03266676257452575</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3121,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4723043706.897383</v>
+        <v>5096201448.751438</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1076261001059829</v>
+        <v>0.1046722976347743</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03335136783788005</v>
+        <v>0.02426066936976119</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>137</v>
+      </c>
+      <c r="J76" t="n">
+        <v>293</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2066265677.565201</v>
+        <v>1506907609.402156</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1448778387961823</v>
+        <v>0.1815110247596145</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02959147921699517</v>
+        <v>0.02185740106116484</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4023272174.78422</v>
+        <v>3260657986.50505</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09220099314830896</v>
+        <v>0.08345954261062355</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05193351492211885</v>
+        <v>0.04323205594068764</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>146</v>
+      </c>
+      <c r="J78" t="n">
+        <v>292</v>
+      </c>
+      <c r="K78" t="n">
+        <v>52.38442745945832</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1698068356.039498</v>
+        <v>1716465585.035582</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1604924963705359</v>
+        <v>0.1456312874047421</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0377531711572719</v>
+        <v>0.03481596959317049</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3446967468.907477</v>
+        <v>5550561362.238891</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1010560630916674</v>
+        <v>0.0847414685995804</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02945601463966836</v>
+        <v>0.02414455190581823</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>143</v>
+      </c>
+      <c r="J80" t="n">
+        <v>293</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3211371371.008315</v>
+        <v>3670807117.383787</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08341583542631255</v>
+        <v>0.08478364949719333</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02366493058657109</v>
+        <v>0.02574934685768966</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>134</v>
+      </c>
+      <c r="J81" t="n">
+        <v>293</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4507643311.555219</v>
+        <v>5572847833.103241</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1710687744225146</v>
+        <v>0.1409727592327596</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02525638553437221</v>
+        <v>0.0262477606800563</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>215</v>
+      </c>
+      <c r="J82" t="n">
+        <v>292</v>
+      </c>
+      <c r="K82" t="n">
+        <v>84.90777736699627</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2040568551.446215</v>
+        <v>2163619655.58194</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1270622411223592</v>
+        <v>0.1123874591751644</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02761255424147609</v>
+        <v>0.0293141649998991</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2377024710.76745</v>
+        <v>1770668022.291867</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09087383473663851</v>
+        <v>0.08531464738483718</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04449636022739212</v>
+        <v>0.05235807582961322</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3334853559.328317</v>
+        <v>3167750139.469467</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1720698284218009</v>
+        <v>0.1480270663313553</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04822876295452221</v>
+        <v>0.03480382968404529</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>39</v>
+      </c>
+      <c r="J85" t="n">
+        <v>282</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2295860353.813022</v>
+        <v>1989676870.311719</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1116409966812173</v>
+        <v>0.1046930783135087</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01805905042254486</v>
+        <v>0.02238570027037884</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1379372618.541403</v>
+        <v>1345950590.97046</v>
       </c>
       <c r="F87" t="n">
-        <v>0.141319440005721</v>
+        <v>0.1337077716487986</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03514742046724514</v>
+        <v>0.03882989805436178</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3545,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2789655667.025397</v>
+        <v>3008652796.393661</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1599620204692645</v>
+        <v>0.1760425962469303</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02937321080809958</v>
+        <v>0.03512422998869833</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>41</v>
+      </c>
+      <c r="J88" t="n">
+        <v>284</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2604212148.747479</v>
+        <v>2995889877.244953</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1432273509219554</v>
+        <v>0.1410296312400031</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02875981386486775</v>
+        <v>0.0266554388291603</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="n">
+        <v>271</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1570605163.239762</v>
+        <v>1436169437.022087</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1102502082843481</v>
+        <v>0.1281176503504111</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03647659432961506</v>
+        <v>0.04741740895400329</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1827472739.946846</v>
+        <v>1566300682.684091</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1701315678545242</v>
+        <v>0.1298621260615846</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04216462028347093</v>
+        <v>0.04062525850831511</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2141002564.240942</v>
+        <v>2578210115.542948</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1046852950695838</v>
+        <v>0.07238101206628324</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03860344535266529</v>
+        <v>0.04553700695945851</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4645099745.593751</v>
+        <v>4359244142.083789</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1165771497279521</v>
+        <v>0.132168799632356</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04414017558558212</v>
+        <v>0.04181263815366575</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>129</v>
+      </c>
+      <c r="J93" t="n">
+        <v>292</v>
+      </c>
+      <c r="K93" t="n">
+        <v>86.7523066303156</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2518471778.769613</v>
+        <v>1930567947.849933</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1246163096874353</v>
+        <v>0.1559663713023161</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03992808185238139</v>
+        <v>0.03882581036188723</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3119118866.260968</v>
+        <v>2558394087.03709</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09304299129333694</v>
+        <v>0.1353405941082894</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04067148621749421</v>
+        <v>0.05142985265333423</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1846429911.281449</v>
+        <v>1619643839.558898</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1204777447803513</v>
+        <v>0.118330680085228</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04591347632508352</v>
+        <v>0.02901001784800936</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4181934126.030354</v>
+        <v>3489128966.181661</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1449861867665959</v>
+        <v>0.1559634492118998</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02253336487755169</v>
+        <v>0.01839434741791825</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>145</v>
+      </c>
+      <c r="J97" t="n">
+        <v>292</v>
+      </c>
+      <c r="K97" t="n">
+        <v>61.78877549403447</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2619130068.872042</v>
+        <v>3456604693.742507</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1103181459448255</v>
+        <v>0.1263217593150305</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02635665382971576</v>
+        <v>0.0247249764927574</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>71</v>
+      </c>
+      <c r="J98" t="n">
+        <v>293</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2365823279.373869</v>
+        <v>2597651597.499747</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1380557469432627</v>
+        <v>0.1220065323478252</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02868765865864252</v>
+        <v>0.02352685007241171</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3113969179.263602</v>
+        <v>4197187346.435918</v>
       </c>
       <c r="F100" t="n">
-        <v>0.143963409272248</v>
+        <v>0.15577624787907</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02325182447997416</v>
+        <v>0.0228252078002271</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>126</v>
+      </c>
+      <c r="J100" t="n">
+        <v>293</v>
+      </c>
+      <c r="K100" t="n">
+        <v>87.67338295911522</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3477525982.414263</v>
+        <v>3130025417.13485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1937654281571017</v>
+        <v>0.1392817405318982</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04847021566412154</v>
+        <v>0.04944923514810021</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>26</v>
+      </c>
+      <c r="J101" t="n">
+        <v>281</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
